--- a/xlsx/聯邦制_intext.xlsx
+++ b/xlsx/聯邦制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>邦联制</t>
   </si>
   <si>
-    <t>政策_政策_美國_聯邦制</t>
+    <t>体育运动_体育运动_苏联_聯邦制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%BB%E4%B9%89</t>
